--- a/Resources/ca_rainfall_df.xlsx
+++ b/Resources/ca_rainfall_df.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SESA284039\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SESA284039\Desktop\Data Analytics\yellow\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBE811E-B53F-46F0-8688-6E9D02055E32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223BC612-8B73-4C29-B5CC-0F52DFA6EC9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E346FD46-83BF-4D7D-B973-CCA5CAADC4AA}"/>
+    <workbookView xWindow="31800" yWindow="3885" windowWidth="29070" windowHeight="12480" xr2:uid="{E346FD46-83BF-4D7D-B973-CCA5CAADC4AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>County</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>August</t>
+  </si>
+  <si>
+    <t>Butte</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>Tulare</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>Monterey</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
   </si>
 </sst>
 </file>
@@ -105,7 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -422,15 +453,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CE2F2E-206D-4154-99FE-EF7C549A46E2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -518,25 +551,144 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6.08</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1987</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1977</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1970</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2008</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2006</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2009</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/ca_rainfall_df.xlsx
+++ b/Resources/ca_rainfall_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SESA284039\Desktop\Data Analytics\yellow\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223BC612-8B73-4C29-B5CC-0F52DFA6EC9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AEA6F8-47B2-4AB6-B4E8-3A49534599DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="3885" windowWidth="29070" windowHeight="12480" xr2:uid="{E346FD46-83BF-4D7D-B973-CCA5CAADC4AA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E346FD46-83BF-4D7D-B973-CCA5CAADC4AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>County</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>Shasta</t>
+  </si>
+  <si>
+    <t>Siskiyou</t>
   </si>
 </sst>
 </file>
@@ -453,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CE2F2E-206D-4154-99FE-EF7C549A46E2}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -690,6 +699,76 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>2007</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>1932</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>2007</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>2008</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
